--- a/data/134/DEUSTATIS/old/Local units - construction.xlsx
+++ b/data/134/DEUSTATIS/old/Local units - construction.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="43">
   <si>
     <t>Local units, persons employed, remunerations, hours worked,
 turnover in the main construction industry (local units with
@@ -142,7 +142,7 @@
     <t>From January 2007 including persons employed in other areas.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-10-07 / 10:37:05</t>
+    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 11:35:12</t>
   </si>
 </sst>
 </file>
@@ -6212,14 +6212,14 @@
       <c r="EW10" t="n" s="10">
         <v>522862.0</v>
       </c>
-      <c r="EX10" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="EY10" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="EZ10" t="s" s="10">
-        <v>36</v>
+      <c r="EX10" t="n" s="10">
+        <v>526216.0</v>
+      </c>
+      <c r="EY10" t="n" s="10">
+        <v>527621.0</v>
+      </c>
+      <c r="EZ10" t="n" s="10">
+        <v>527476.0</v>
       </c>
       <c r="FA10" t="s" s="10">
         <v>36</v>
@@ -6688,14 +6688,14 @@
       <c r="EW11" t="n" s="10">
         <v>56353.0</v>
       </c>
-      <c r="EX11" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="EY11" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="EZ11" t="s" s="10">
-        <v>36</v>
+      <c r="EX11" t="n" s="10">
+        <v>51533.0</v>
+      </c>
+      <c r="EY11" t="n" s="10">
+        <v>58673.0</v>
+      </c>
+      <c r="EZ11" t="n" s="10">
+        <v>56323.0</v>
       </c>
       <c r="FA11" t="s" s="10">
         <v>36</v>
@@ -6763,7 +6763,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 07.10.21 / 10:37:10&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.12.21 / 11:35:17&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>